--- a/Lab_2/bin/Debug/net5.0/Graphs.xlsx
+++ b/Lab_2/bin/Debug/net5.0/Graphs.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ReposProject\NumericalMethod_RUDN\Lab_2\bin\Debug\net5.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0829432E-D7A4-460B-85A8-D7C27F376ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAAC888-CE59-47AF-BD93-34D2C79E3622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1088,304 +1096,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>10.103676</c:v>
+                  <c:v>0.13271192000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9774985000000003</c:v>
+                  <c:v>0.16323385000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2395550000000002</c:v>
+                  <c:v>0.20044566999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8605281</c:v>
+                  <c:v>0.24354503999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.18865058000000001</c:v>
+                  <c:v>0.29177146999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.9350026</c:v>
+                  <c:v>0.34438336000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.4039685999999998</c:v>
+                  <c:v>0.40066354999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.619408</c:v>
+                  <c:v>0.45991936</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.6037397000000002</c:v>
+                  <c:v>0.52149235999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.3773499999999999</c:v>
+                  <c:v>0.58471890000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.9595294000000001</c:v>
+                  <c:v>0.64898913999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.3678140000000001</c:v>
+                  <c:v>0.71370789999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.6181580000000002</c:v>
+                  <c:v>0.77830449999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.7249410000000003</c:v>
+                  <c:v>0.84224266000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.7009230000000004</c:v>
+                  <c:v>0.90498009999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-7.5573430000000004</c:v>
+                  <c:v>0.96602949999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7.3038319999999999</c:v>
+                  <c:v>1.0249178000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.9484380000000003</c:v>
+                  <c:v>1.0811963</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.4975513999999999</c:v>
+                  <c:v>1.1344487999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-5.9562024999999998</c:v>
+                  <c:v>1.1842585000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5.3276329999999996</c:v>
+                  <c:v>1.2302586</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4.6135679999999999</c:v>
+                  <c:v>1.2720981</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.8141512999999998</c:v>
+                  <c:v>1.3094501000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.9279459999999999</c:v>
+                  <c:v>1.3420125999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.9517713000000001</c:v>
+                  <c:v>1.3695115</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.88133790000000001</c:v>
+                  <c:v>1.3916847000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.28968250000000001</c:v>
+                  <c:v>1.4083076000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5690512999999999</c:v>
+                  <c:v>1.4191757</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.9661105000000001</c:v>
+                  <c:v>1.4241090000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.492038</c:v>
+                  <c:v>1.4229505</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.1588526000000003</c:v>
+                  <c:v>1.4155694000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.9808735999999998</c:v>
+                  <c:v>1.4018588999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.9737670000000005</c:v>
+                  <c:v>1.3817364000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.154780000000001</c:v>
+                  <c:v>1.3551435000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14.542743</c:v>
+                  <c:v>1.3220464999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.158498999999999</c:v>
+                  <c:v>1.2824291000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20.023209000000001</c:v>
+                  <c:v>1.2363189999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23.160844999999998</c:v>
+                  <c:v>1.1837494</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>26.596556</c:v>
+                  <c:v>1.1247845000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30.357078999999999</c:v>
+                  <c:v>1.0595123</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>34.471409999999999</c:v>
+                  <c:v>0.98803353000000005</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>38.968142999999998</c:v>
+                  <c:v>0.91050799999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.879379999999998</c:v>
+                  <c:v>0.82708614999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>49.238174000000001</c:v>
+                  <c:v>0.73795379999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>55.079174000000002</c:v>
+                  <c:v>0.64332115999999995</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>61.439647999999998</c:v>
+                  <c:v>0.54340650000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>68.355379999999997</c:v>
+                  <c:v>0.43850073000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>75.866714000000002</c:v>
+                  <c:v>0.32887169999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>84.014629999999997</c:v>
+                  <c:v>0.21482726999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>92.841660000000005</c:v>
+                  <c:v>9.6699640000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>102.39194000000001</c:v>
+                  <c:v>-2.5154554999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>112.71287</c:v>
+                  <c:v>-0.15037445999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>123.84846</c:v>
+                  <c:v>-0.27851473999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>135.84916999999999</c:v>
+                  <c:v>-0.40916522999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>148.76543000000001</c:v>
+                  <c:v>-0.54187169999999996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>162.64929000000001</c:v>
+                  <c:v>-0.67615550000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>177.55681000000001</c:v>
+                  <c:v>-0.81153520000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>193.53845000000001</c:v>
+                  <c:v>-0.94744015000000004</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>210.65325999999999</c:v>
+                  <c:v>-1.08334</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>228.95961</c:v>
+                  <c:v>-1.2186584</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>248.51742999999999</c:v>
+                  <c:v>-1.3527948999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>269.38824</c:v>
+                  <c:v>-1.4851242</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>291.63875999999999</c:v>
+                  <c:v>-1.6150175</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>315.32666</c:v>
+                  <c:v>-1.7417593</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>340.52157999999997</c:v>
+                  <c:v>-1.8646723000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>367.29138</c:v>
+                  <c:v>-1.9830337</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>395.70546999999999</c:v>
+                  <c:v>-2.0960964999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>425.83978000000002</c:v>
+                  <c:v>-2.203106</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>457.75734999999997</c:v>
+                  <c:v>-2.3032314999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>491.53699999999998</c:v>
+                  <c:v>-2.3956707000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>527.25440000000003</c:v>
+                  <c:v>-2.4795790000000002</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>564.98699999999997</c:v>
+                  <c:v>-2.554087</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>604.82006999999999</c:v>
+                  <c:v>-2.6183105000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>646.82159999999999</c:v>
+                  <c:v>-2.6713111</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>691.0797</c:v>
+                  <c:v>-2.7121577000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>737.67804000000001</c:v>
+                  <c:v>-2.7398837</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>786.70196999999996</c:v>
+                  <c:v>-2.7534974000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>838.23810000000003</c:v>
+                  <c:v>-2.7519840000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>892.38385000000005</c:v>
+                  <c:v>-2.7342987000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>949.21185000000003</c:v>
+                  <c:v>-2.6993830000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1008.8221</c:v>
+                  <c:v>-2.6461467999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1071.3077000000001</c:v>
+                  <c:v>-2.5734767999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1136.7635</c:v>
+                  <c:v>-2.4802355999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1205.2969000000001</c:v>
+                  <c:v>-2.3652408</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1276.9838</c:v>
+                  <c:v>-2.2273426000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1351.9346</c:v>
+                  <c:v>-2.0653139999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1430.2501</c:v>
+                  <c:v>-1.8779196</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1512.0331000000001</c:v>
+                  <c:v>-1.6638998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1597.3877</c:v>
+                  <c:v>-1.4219706999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1686.4341999999999</c:v>
+                  <c:v>-1.1507784000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1779.2517</c:v>
+                  <c:v>-0.84907630000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1875.9629</c:v>
+                  <c:v>-0.51546619999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1976.6785</c:v>
+                  <c:v>-0.14856674</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2081.5102999999999</c:v>
+                  <c:v>0.25302817999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2190.59</c:v>
+                  <c:v>0.69082149999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2303.998</c:v>
+                  <c:v>1.166129</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2421.8683999999998</c:v>
+                  <c:v>1.6804965999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2544.3193000000001</c:v>
+                  <c:v>2.2354278999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2671.471</c:v>
+                  <c:v>2.8324506</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2803.4663</c:v>
+                  <c:v>3.4732232000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,16 +2152,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2447,7 +2455,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2485,7 @@
         <v>6.2829999999999997E-2</v>
       </c>
       <c r="D2">
-        <v>10.103676</v>
+        <v>0.13271192000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2491,7 +2499,7 @@
         <v>0.12565999999999999</v>
       </c>
       <c r="D3">
-        <v>6.9774985000000003</v>
+        <v>0.16323385000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2505,7 +2513,7 @@
         <v>0.1885</v>
       </c>
       <c r="D4">
-        <v>4.2395550000000002</v>
+        <v>0.20044566999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,7 +2527,7 @@
         <v>0.25133</v>
       </c>
       <c r="D5">
-        <v>1.8605281</v>
+        <v>0.24354503999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,7 +2541,7 @@
         <v>0.31415999999999999</v>
       </c>
       <c r="D6">
-        <v>-0.18865058000000001</v>
+        <v>0.29177146999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,7 +2555,7 @@
         <v>0.37698999999999999</v>
       </c>
       <c r="D7">
-        <v>-1.9350026</v>
+        <v>0.34438336000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2561,7 +2569,7 @@
         <v>0.43981999999999999</v>
       </c>
       <c r="D8">
-        <v>-3.4039685999999998</v>
+        <v>0.40066354999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2575,7 +2583,7 @@
         <v>0.50265000000000004</v>
       </c>
       <c r="D9">
-        <v>-4.619408</v>
+        <v>0.45991936</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,7 +2597,7 @@
         <v>0.56549000000000005</v>
       </c>
       <c r="D10">
-        <v>-5.6037397000000002</v>
+        <v>0.52149235999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,7 +2611,7 @@
         <v>0.62831999999999999</v>
       </c>
       <c r="D11">
-        <v>-6.3773499999999999</v>
+        <v>0.58471890000000004</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2617,7 +2625,7 @@
         <v>0.69115000000000004</v>
       </c>
       <c r="D12">
-        <v>-6.9595294000000001</v>
+        <v>0.64898913999999996</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,7 +2639,7 @@
         <v>0.75397999999999998</v>
       </c>
       <c r="D13">
-        <v>-7.3678140000000001</v>
+        <v>0.71370789999999995</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,7 +2653,7 @@
         <v>0.81681000000000004</v>
       </c>
       <c r="D14">
-        <v>-7.6181580000000002</v>
+        <v>0.77830449999999995</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,7 +2667,7 @@
         <v>0.87965000000000004</v>
       </c>
       <c r="D15">
-        <v>-7.7249410000000003</v>
+        <v>0.84224266000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,7 +2681,7 @@
         <v>0.94247999999999998</v>
       </c>
       <c r="D16">
-        <v>-7.7009230000000004</v>
+        <v>0.90498009999999995</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,7 +2695,7 @@
         <v>1.0053099999999999</v>
       </c>
       <c r="D17">
-        <v>-7.5573430000000004</v>
+        <v>0.96602949999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,7 +2709,7 @@
         <v>1.0681400000000001</v>
       </c>
       <c r="D18">
-        <v>-7.3038319999999999</v>
+        <v>1.0249178000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,7 +2723,7 @@
         <v>1.13097</v>
       </c>
       <c r="D19">
-        <v>-6.9484380000000003</v>
+        <v>1.0811963</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,7 +2737,7 @@
         <v>1.19381</v>
       </c>
       <c r="D20">
-        <v>-6.4975513999999999</v>
+        <v>1.1344487999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,7 +2751,7 @@
         <v>1.25664</v>
       </c>
       <c r="D21">
-        <v>-5.9562024999999998</v>
+        <v>1.1842585000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2757,7 +2765,7 @@
         <v>1.3194699999999999</v>
       </c>
       <c r="D22">
-        <v>-5.3276329999999996</v>
+        <v>1.2302586</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2771,7 +2779,7 @@
         <v>1.3823000000000001</v>
       </c>
       <c r="D23">
-        <v>-4.6135679999999999</v>
+        <v>1.2720981</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2785,7 +2793,7 @@
         <v>1.44513</v>
       </c>
       <c r="D24">
-        <v>-3.8141512999999998</v>
+        <v>1.3094501000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,7 +2807,7 @@
         <v>1.50796</v>
       </c>
       <c r="D25">
-        <v>-2.9279459999999999</v>
+        <v>1.3420125999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,7 +2821,7 @@
         <v>1.5708</v>
       </c>
       <c r="D26">
-        <v>-1.9517713000000001</v>
+        <v>1.3695115</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,7 +2835,7 @@
         <v>1.6336299999999999</v>
       </c>
       <c r="D27">
-        <v>-0.88133790000000001</v>
+        <v>1.3916847000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,7 +2849,7 @@
         <v>1.6964600000000001</v>
       </c>
       <c r="D28">
-        <v>0.28968250000000001</v>
+        <v>1.4083076000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2855,7 +2863,7 @@
         <v>1.75929</v>
       </c>
       <c r="D29">
-        <v>1.5690512999999999</v>
+        <v>1.4191757</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,7 +2877,7 @@
         <v>1.82212</v>
       </c>
       <c r="D30">
-        <v>2.9661105000000001</v>
+        <v>1.4241090000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2883,7 +2891,7 @@
         <v>1.88496</v>
       </c>
       <c r="D31">
-        <v>4.492038</v>
+        <v>1.4229505</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,7 +2905,7 @@
         <v>1.9477899999999999</v>
       </c>
       <c r="D32">
-        <v>6.1588526000000003</v>
+        <v>1.4155694000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,7 +2919,7 @@
         <v>2.0106199999999999</v>
       </c>
       <c r="D33">
-        <v>7.9808735999999998</v>
+        <v>1.4018588999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2925,7 +2933,7 @@
         <v>2.0734499999999998</v>
       </c>
       <c r="D34">
-        <v>9.9737670000000005</v>
+        <v>1.3817364000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,7 +2947,7 @@
         <v>2.1362800000000002</v>
       </c>
       <c r="D35">
-        <v>12.154780000000001</v>
+        <v>1.3551435000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2953,7 +2961,7 @@
         <v>2.1991100000000001</v>
       </c>
       <c r="D36">
-        <v>14.542743</v>
+        <v>1.3220464999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2967,7 +2975,7 @@
         <v>2.2619500000000001</v>
       </c>
       <c r="D37">
-        <v>17.158498999999999</v>
+        <v>1.2824291000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,7 +2989,7 @@
         <v>2.3247800000000001</v>
       </c>
       <c r="D38">
-        <v>20.023209000000001</v>
+        <v>1.2363189999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,7 +3003,7 @@
         <v>2.38761</v>
       </c>
       <c r="D39">
-        <v>23.160844999999998</v>
+        <v>1.1837494</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,7 +3017,7 @@
         <v>2.45044</v>
       </c>
       <c r="D40">
-        <v>26.596556</v>
+        <v>1.1247845000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3023,7 +3031,7 @@
         <v>2.5132699999999999</v>
       </c>
       <c r="D41">
-        <v>30.357078999999999</v>
+        <v>1.0595123</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3037,7 +3045,7 @@
         <v>2.5761099999999999</v>
       </c>
       <c r="D42">
-        <v>34.471409999999999</v>
+        <v>0.98803353000000005</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3051,7 +3059,7 @@
         <v>2.6389399999999998</v>
       </c>
       <c r="D43">
-        <v>38.968142999999998</v>
+        <v>0.91050799999999998</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3065,7 +3073,7 @@
         <v>2.7017699999999998</v>
       </c>
       <c r="D44">
-        <v>43.879379999999998</v>
+        <v>0.82708614999999996</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,7 +3087,7 @@
         <v>2.7646000000000002</v>
       </c>
       <c r="D45">
-        <v>49.238174000000001</v>
+        <v>0.73795379999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,7 +3101,7 @@
         <v>2.8274300000000001</v>
       </c>
       <c r="D46">
-        <v>55.079174000000002</v>
+        <v>0.64332115999999995</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3107,7 +3115,7 @@
         <v>2.8902700000000001</v>
       </c>
       <c r="D47">
-        <v>61.439647999999998</v>
+        <v>0.54340650000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3121,7 +3129,7 @@
         <v>2.9531000000000001</v>
       </c>
       <c r="D48">
-        <v>68.355379999999997</v>
+        <v>0.43850073000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3135,7 +3143,7 @@
         <v>3.01593</v>
       </c>
       <c r="D49">
-        <v>75.866714000000002</v>
+        <v>0.32887169999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,7 +3157,7 @@
         <v>3.0787599999999999</v>
       </c>
       <c r="D50">
-        <v>84.014629999999997</v>
+        <v>0.21482726999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,7 +3171,7 @@
         <v>3.1415899999999999</v>
       </c>
       <c r="D51">
-        <v>92.841660000000005</v>
+        <v>9.6699640000000003E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3177,7 +3185,7 @@
         <v>3.2044199999999998</v>
       </c>
       <c r="D52">
-        <v>102.39194000000001</v>
+        <v>-2.5154554999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3191,7 +3199,7 @@
         <v>3.2672599999999998</v>
       </c>
       <c r="D53">
-        <v>112.71287</v>
+        <v>-0.15037445999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,7 +3213,7 @@
         <v>3.3300900000000002</v>
       </c>
       <c r="D54">
-        <v>123.84846</v>
+        <v>-0.27851473999999998</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,7 +3227,7 @@
         <v>3.3929200000000002</v>
       </c>
       <c r="D55">
-        <v>135.84916999999999</v>
+        <v>-0.40916522999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,7 +3241,7 @@
         <v>3.4557500000000001</v>
       </c>
       <c r="D56">
-        <v>148.76543000000001</v>
+        <v>-0.54187169999999996</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,7 +3255,7 @@
         <v>3.51858</v>
       </c>
       <c r="D57">
-        <v>162.64929000000001</v>
+        <v>-0.67615550000000002</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,7 +3269,7 @@
         <v>3.58142</v>
       </c>
       <c r="D58">
-        <v>177.55681000000001</v>
+        <v>-0.81153520000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,7 +3283,7 @@
         <v>3.64425</v>
       </c>
       <c r="D59">
-        <v>193.53845000000001</v>
+        <v>-0.94744015000000004</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,7 +3297,7 @@
         <v>3.7070799999999999</v>
       </c>
       <c r="D60">
-        <v>210.65325999999999</v>
+        <v>-1.08334</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,7 +3311,7 @@
         <v>3.7699099999999999</v>
       </c>
       <c r="D61">
-        <v>228.95961</v>
+        <v>-1.2186584</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,7 +3325,7 @@
         <v>3.8327399999999998</v>
       </c>
       <c r="D62">
-        <v>248.51742999999999</v>
+        <v>-1.3527948999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,7 +3339,7 @@
         <v>3.8955700000000002</v>
       </c>
       <c r="D63">
-        <v>269.38824</v>
+        <v>-1.4851242</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,7 +3353,7 @@
         <v>3.9584100000000002</v>
       </c>
       <c r="D64">
-        <v>291.63875999999999</v>
+        <v>-1.6150175</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,7 +3367,7 @@
         <v>4.0212399999999997</v>
       </c>
       <c r="D65">
-        <v>315.32666</v>
+        <v>-1.7417593</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3373,7 +3381,7 @@
         <v>4.0840699999999996</v>
       </c>
       <c r="D66">
-        <v>340.52157999999997</v>
+        <v>-1.8646723000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,7 +3395,7 @@
         <v>4.1468999999999996</v>
       </c>
       <c r="D67">
-        <v>367.29138</v>
+        <v>-1.9830337</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,7 +3409,7 @@
         <v>4.2097300000000004</v>
       </c>
       <c r="D68">
-        <v>395.70546999999999</v>
+        <v>-2.0960964999999998</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,7 +3423,7 @@
         <v>4.27257</v>
       </c>
       <c r="D69">
-        <v>425.83978000000002</v>
+        <v>-2.203106</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,7 +3437,7 @@
         <v>4.3353999999999999</v>
       </c>
       <c r="D70">
-        <v>457.75734999999997</v>
+        <v>-2.3032314999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,7 +3451,7 @@
         <v>4.3982299999999999</v>
       </c>
       <c r="D71">
-        <v>491.53699999999998</v>
+        <v>-2.3956707000000002</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,7 +3465,7 @@
         <v>4.4610599999999998</v>
       </c>
       <c r="D72">
-        <v>527.25440000000003</v>
+        <v>-2.4795790000000002</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,7 +3479,7 @@
         <v>4.5238899999999997</v>
       </c>
       <c r="D73">
-        <v>564.98699999999997</v>
+        <v>-2.554087</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,7 +3493,7 @@
         <v>4.5867300000000002</v>
       </c>
       <c r="D74">
-        <v>604.82006999999999</v>
+        <v>-2.6183105000000002</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,7 +3507,7 @@
         <v>4.6495600000000001</v>
       </c>
       <c r="D75">
-        <v>646.82159999999999</v>
+        <v>-2.6713111</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,7 +3521,7 @@
         <v>4.7123900000000001</v>
       </c>
       <c r="D76">
-        <v>691.0797</v>
+        <v>-2.7121577000000001</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,7 +3535,7 @@
         <v>4.77522</v>
       </c>
       <c r="D77">
-        <v>737.67804000000001</v>
+        <v>-2.7398837</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3541,7 +3549,7 @@
         <v>4.83805</v>
       </c>
       <c r="D78">
-        <v>786.70196999999996</v>
+        <v>-2.7534974000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3555,7 +3563,7 @@
         <v>4.9008799999999999</v>
       </c>
       <c r="D79">
-        <v>838.23810000000003</v>
+        <v>-2.7519840000000002</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,7 +3577,7 @@
         <v>4.9637200000000004</v>
       </c>
       <c r="D80">
-        <v>892.38385000000005</v>
+        <v>-2.7342987000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3583,7 +3591,7 @@
         <v>5.0265500000000003</v>
       </c>
       <c r="D81">
-        <v>949.21185000000003</v>
+        <v>-2.6993830000000001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3597,7 +3605,7 @@
         <v>5.0893800000000002</v>
       </c>
       <c r="D82">
-        <v>1008.8221</v>
+        <v>-2.6461467999999999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3611,7 +3619,7 @@
         <v>5.1522100000000002</v>
       </c>
       <c r="D83">
-        <v>1071.3077000000001</v>
+        <v>-2.5734767999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3625,7 +3633,7 @@
         <v>5.2150400000000001</v>
       </c>
       <c r="D84">
-        <v>1136.7635</v>
+        <v>-2.4802355999999999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3639,7 +3647,7 @@
         <v>5.2778799999999997</v>
       </c>
       <c r="D85">
-        <v>1205.2969000000001</v>
+        <v>-2.3652408</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3653,7 +3661,7 @@
         <v>5.3407099999999996</v>
       </c>
       <c r="D86">
-        <v>1276.9838</v>
+        <v>-2.2273426000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3667,7 +3675,7 @@
         <v>5.4035399999999996</v>
       </c>
       <c r="D87">
-        <v>1351.9346</v>
+        <v>-2.0653139999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3681,7 +3689,7 @@
         <v>5.4663700000000004</v>
       </c>
       <c r="D88">
-        <v>1430.2501</v>
+        <v>-1.8779196</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3695,7 +3703,7 @@
         <v>5.5292000000000003</v>
       </c>
       <c r="D89">
-        <v>1512.0331000000001</v>
+        <v>-1.6638998</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3709,7 +3717,7 @@
         <v>5.5920300000000003</v>
       </c>
       <c r="D90">
-        <v>1597.3877</v>
+        <v>-1.4219706999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3723,7 +3731,7 @@
         <v>5.6548699999999998</v>
       </c>
       <c r="D91">
-        <v>1686.4341999999999</v>
+        <v>-1.1507784000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3737,7 +3745,7 @@
         <v>5.7176999999999998</v>
       </c>
       <c r="D92">
-        <v>1779.2517</v>
+        <v>-0.84907630000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3751,7 +3759,7 @@
         <v>5.7805299999999997</v>
       </c>
       <c r="D93">
-        <v>1875.9629</v>
+        <v>-0.51546619999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3765,7 +3773,7 @@
         <v>5.8433599999999997</v>
       </c>
       <c r="D94">
-        <v>1976.6785</v>
+        <v>-0.14856674</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3779,7 +3787,7 @@
         <v>5.9061899999999996</v>
       </c>
       <c r="D95">
-        <v>2081.5102999999999</v>
+        <v>0.25302817999999999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3793,7 +3801,7 @@
         <v>5.9690300000000001</v>
       </c>
       <c r="D96">
-        <v>2190.59</v>
+        <v>0.69082149999999998</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3807,7 +3815,7 @@
         <v>6.03186</v>
       </c>
       <c r="D97">
-        <v>2303.998</v>
+        <v>1.166129</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3821,7 +3829,7 @@
         <v>6.0946899999999999</v>
       </c>
       <c r="D98">
-        <v>2421.8683999999998</v>
+        <v>1.6804965999999999</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3835,7 +3843,7 @@
         <v>6.1575199999999999</v>
       </c>
       <c r="D99">
-        <v>2544.3193000000001</v>
+        <v>2.2354278999999999</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3849,7 +3857,7 @@
         <v>6.2203499999999998</v>
       </c>
       <c r="D100">
-        <v>2671.471</v>
+        <v>2.8324506</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3863,7 +3871,7 @@
         <v>6.2831900000000003</v>
       </c>
       <c r="D101">
-        <v>2803.4663</v>
+        <v>3.4732232000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Lab_2/bin/Debug/net5.0/Graphs.xlsx
+++ b/Lab_2/bin/Debug/net5.0/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ReposProject\NumericalMethod_RUDN\Lab_2\bin\Debug\net5.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAAC888-CE59-47AF-BD93-34D2C79E3622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C35B039-F5E9-4678-BD1F-7AAE612377DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1096,304 +1096,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.13271192000000001</c:v>
+                  <c:v>1.0137223</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16323385000000001</c:v>
+                  <c:v>1.0442442000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20044566999999999</c:v>
+                  <c:v>1.0814561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24354503999999999</c:v>
+                  <c:v>1.1245552999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29177146999999998</c:v>
+                  <c:v>1.1727818000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34438336000000003</c:v>
+                  <c:v>1.2253936999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40066354999999998</c:v>
+                  <c:v>1.2816738999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45991936</c:v>
+                  <c:v>1.3409297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52149235999999999</c:v>
+                  <c:v>1.4025027000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58471890000000004</c:v>
+                  <c:v>1.4657292</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64898913999999996</c:v>
+                  <c:v>1.5299995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.71370789999999995</c:v>
+                  <c:v>1.5947182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77830449999999995</c:v>
+                  <c:v>1.6593149</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.84224266000000003</c:v>
+                  <c:v>1.7232529999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90498009999999995</c:v>
+                  <c:v>1.7859905</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96602949999999999</c:v>
+                  <c:v>1.8470397999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0249178000000001</c:v>
+                  <c:v>1.9059280999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0811963</c:v>
+                  <c:v>1.9622066</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1344487999999999</c:v>
+                  <c:v>2.0154589999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1842585000000001</c:v>
+                  <c:v>2.0652688000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2302586</c:v>
+                  <c:v>2.1112690000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2720981</c:v>
+                  <c:v>2.1531083999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3094501000000001</c:v>
+                  <c:v>2.1904604000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3420125999999999</c:v>
+                  <c:v>2.223023</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3695115</c:v>
+                  <c:v>2.2505220000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3916847000000001</c:v>
+                  <c:v>2.2726950000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4083076000000001</c:v>
+                  <c:v>2.2893178000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4191757</c:v>
+                  <c:v>2.3001862000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4241090000000001</c:v>
+                  <c:v>2.3051192999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4229505</c:v>
+                  <c:v>2.3039608</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4155694000000001</c:v>
+                  <c:v>2.2965797999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.4018588999999999</c:v>
+                  <c:v>2.2828693000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3817364000000001</c:v>
+                  <c:v>2.2627467999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3551435000000001</c:v>
+                  <c:v>2.2361537999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3220464999999999</c:v>
+                  <c:v>2.2030568000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.2824291000000001</c:v>
+                  <c:v>2.1634395</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2363189999999999</c:v>
+                  <c:v>2.1173294</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1837494</c:v>
+                  <c:v>2.0647597000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1247845000000001</c:v>
+                  <c:v>2.0057947999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0595123</c:v>
+                  <c:v>1.9405227</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.98803353000000005</c:v>
+                  <c:v>1.8690439999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.91050799999999998</c:v>
+                  <c:v>1.7915182999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.82708614999999996</c:v>
+                  <c:v>1.7080964999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.73795379999999999</c:v>
+                  <c:v>1.6189642</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.64332115999999995</c:v>
+                  <c:v>1.5243316</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.54340650000000001</c:v>
+                  <c:v>1.4244169</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.43850073000000001</c:v>
+                  <c:v>1.3195110000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.32887169999999999</c:v>
+                  <c:v>1.2098819999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.21482726999999999</c:v>
+                  <c:v>1.0958376000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.6699640000000003E-2</c:v>
+                  <c:v>0.97770999999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.5154554999999999E-2</c:v>
+                  <c:v>0.85585580000000006</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.15037445999999999</c:v>
+                  <c:v>0.7306359</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.27851473999999998</c:v>
+                  <c:v>0.60249560000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.40916522999999999</c:v>
+                  <c:v>0.47184512000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.54187169999999996</c:v>
+                  <c:v>0.33913865999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.67615550000000002</c:v>
+                  <c:v>0.20485485</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.81153520000000001</c:v>
+                  <c:v>6.9475174000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.94744015000000004</c:v>
+                  <c:v>-6.6429790000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.08334</c:v>
+                  <c:v>-0.20232964000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.2186584</c:v>
+                  <c:v>-0.33764810000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.3527948999999999</c:v>
+                  <c:v>-0.47178456000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.4851242</c:v>
+                  <c:v>-0.60411389999999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.6150175</c:v>
+                  <c:v>-0.73400710000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.7417593</c:v>
+                  <c:v>-0.86074894999999996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.8646723000000001</c:v>
+                  <c:v>-0.98366189999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.9830337</c:v>
+                  <c:v>-1.1020234</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.0960964999999998</c:v>
+                  <c:v>-1.2150862</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.203106</c:v>
+                  <c:v>-1.3220955000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-2.3032314999999999</c:v>
+                  <c:v>-1.4222212000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.3956707000000002</c:v>
+                  <c:v>-1.5146603999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.4795790000000002</c:v>
+                  <c:v>-1.5985685999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.554087</c:v>
+                  <c:v>-1.6730765000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.6183105000000002</c:v>
+                  <c:v>-1.7373000000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.6713111</c:v>
+                  <c:v>-1.7903007</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.7121577000000001</c:v>
+                  <c:v>-1.8311474000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.7398837</c:v>
+                  <c:v>-1.8588731999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.7534974000000001</c:v>
+                  <c:v>-1.8724871000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-2.7519840000000002</c:v>
+                  <c:v>-1.8709735000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.7342987000000001</c:v>
+                  <c:v>-1.8532883</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-2.6993830000000001</c:v>
+                  <c:v>-1.8183727000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.6461467999999999</c:v>
+                  <c:v>-1.7651365000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-2.5734767999999999</c:v>
+                  <c:v>-1.6924665000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.4802355999999999</c:v>
+                  <c:v>-1.5992252</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.3652408</c:v>
+                  <c:v>-1.4842303999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-2.2273426000000001</c:v>
+                  <c:v>-1.3463323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.0653139999999999</c:v>
+                  <c:v>-1.1843036</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.8779196</c:v>
+                  <c:v>-0.99690920000000005</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.6638998</c:v>
+                  <c:v>-0.78288939999999996</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.4219706999999999</c:v>
+                  <c:v>-0.54096040000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.1507784000000001</c:v>
+                  <c:v>-0.26976805999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.84907630000000001</c:v>
+                  <c:v>3.1934104999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.51546619999999999</c:v>
+                  <c:v>0.36554414000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.14856674</c:v>
+                  <c:v>0.73244363000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.25302817999999999</c:v>
+                  <c:v>1.1340386</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.69082149999999998</c:v>
+                  <c:v>1.5718319999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.166129</c:v>
+                  <c:v>2.0471393999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.6804965999999999</c:v>
+                  <c:v>2.5615070000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.2354278999999999</c:v>
+                  <c:v>3.1164382000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.8324506</c:v>
+                  <c:v>3.7134610000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.4732232000000001</c:v>
+                  <c:v>4.3542337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2455,7 +2455,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,7 +2485,7 @@
         <v>6.2829999999999997E-2</v>
       </c>
       <c r="D2">
-        <v>0.13271192000000001</v>
+        <v>1.0137223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
         <v>0.12565999999999999</v>
       </c>
       <c r="D3">
-        <v>0.16323385000000001</v>
+        <v>1.0442442000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>0.1885</v>
       </c>
       <c r="D4">
-        <v>0.20044566999999999</v>
+        <v>1.0814561</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>0.25133</v>
       </c>
       <c r="D5">
-        <v>0.24354503999999999</v>
+        <v>1.1245552999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
         <v>0.31415999999999999</v>
       </c>
       <c r="D6">
-        <v>0.29177146999999998</v>
+        <v>1.1727818000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,7 +2555,7 @@
         <v>0.37698999999999999</v>
       </c>
       <c r="D7">
-        <v>0.34438336000000003</v>
+        <v>1.2253936999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,7 +2569,7 @@
         <v>0.43981999999999999</v>
       </c>
       <c r="D8">
-        <v>0.40066354999999998</v>
+        <v>1.2816738999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,7 +2583,7 @@
         <v>0.50265000000000004</v>
       </c>
       <c r="D9">
-        <v>0.45991936</v>
+        <v>1.3409297</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,7 +2597,7 @@
         <v>0.56549000000000005</v>
       </c>
       <c r="D10">
-        <v>0.52149235999999999</v>
+        <v>1.4025027000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,7 +2611,7 @@
         <v>0.62831999999999999</v>
       </c>
       <c r="D11">
-        <v>0.58471890000000004</v>
+        <v>1.4657292</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,7 +2625,7 @@
         <v>0.69115000000000004</v>
       </c>
       <c r="D12">
-        <v>0.64898913999999996</v>
+        <v>1.5299995</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>0.75397999999999998</v>
       </c>
       <c r="D13">
-        <v>0.71370789999999995</v>
+        <v>1.5947182</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,7 +2653,7 @@
         <v>0.81681000000000004</v>
       </c>
       <c r="D14">
-        <v>0.77830449999999995</v>
+        <v>1.6593149</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>0.87965000000000004</v>
       </c>
       <c r="D15">
-        <v>0.84224266000000003</v>
+        <v>1.7232529999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,7 +2681,7 @@
         <v>0.94247999999999998</v>
       </c>
       <c r="D16">
-        <v>0.90498009999999995</v>
+        <v>1.7859905</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,7 +2695,7 @@
         <v>1.0053099999999999</v>
       </c>
       <c r="D17">
-        <v>0.96602949999999999</v>
+        <v>1.8470397999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
         <v>1.0681400000000001</v>
       </c>
       <c r="D18">
-        <v>1.0249178000000001</v>
+        <v>1.9059280999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,7 +2723,7 @@
         <v>1.13097</v>
       </c>
       <c r="D19">
-        <v>1.0811963</v>
+        <v>1.9622066</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,7 +2737,7 @@
         <v>1.19381</v>
       </c>
       <c r="D20">
-        <v>1.1344487999999999</v>
+        <v>2.0154589999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>1.25664</v>
       </c>
       <c r="D21">
-        <v>1.1842585000000001</v>
+        <v>2.0652688000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,7 +2765,7 @@
         <v>1.3194699999999999</v>
       </c>
       <c r="D22">
-        <v>1.2302586</v>
+        <v>2.1112690000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
         <v>1.3823000000000001</v>
       </c>
       <c r="D23">
-        <v>1.2720981</v>
+        <v>2.1531083999999998</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,7 +2793,7 @@
         <v>1.44513</v>
       </c>
       <c r="D24">
-        <v>1.3094501000000001</v>
+        <v>2.1904604000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2807,7 +2807,7 @@
         <v>1.50796</v>
       </c>
       <c r="D25">
-        <v>1.3420125999999999</v>
+        <v>2.223023</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
         <v>1.5708</v>
       </c>
       <c r="D26">
-        <v>1.3695115</v>
+        <v>2.2505220000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
         <v>1.6336299999999999</v>
       </c>
       <c r="D27">
-        <v>1.3916847000000001</v>
+        <v>2.2726950000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,7 +2849,7 @@
         <v>1.6964600000000001</v>
       </c>
       <c r="D28">
-        <v>1.4083076000000001</v>
+        <v>2.2893178000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>1.75929</v>
       </c>
       <c r="D29">
-        <v>1.4191757</v>
+        <v>2.3001862000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>1.82212</v>
       </c>
       <c r="D30">
-        <v>1.4241090000000001</v>
+        <v>2.3051192999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>1.88496</v>
       </c>
       <c r="D31">
-        <v>1.4229505</v>
+        <v>2.3039608</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,7 +2905,7 @@
         <v>1.9477899999999999</v>
       </c>
       <c r="D32">
-        <v>1.4155694000000001</v>
+        <v>2.2965797999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,7 +2919,7 @@
         <v>2.0106199999999999</v>
       </c>
       <c r="D33">
-        <v>1.4018588999999999</v>
+        <v>2.2828693000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,7 @@
         <v>2.0734499999999998</v>
       </c>
       <c r="D34">
-        <v>1.3817364000000001</v>
+        <v>2.2627467999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
         <v>2.1362800000000002</v>
       </c>
       <c r="D35">
-        <v>1.3551435000000001</v>
+        <v>2.2361537999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>2.1991100000000001</v>
       </c>
       <c r="D36">
-        <v>1.3220464999999999</v>
+        <v>2.2030568000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>2.2619500000000001</v>
       </c>
       <c r="D37">
-        <v>1.2824291000000001</v>
+        <v>2.1634395</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,7 +2989,7 @@
         <v>2.3247800000000001</v>
       </c>
       <c r="D38">
-        <v>1.2363189999999999</v>
+        <v>2.1173294</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,7 +3003,7 @@
         <v>2.38761</v>
       </c>
       <c r="D39">
-        <v>1.1837494</v>
+        <v>2.0647597000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>2.45044</v>
       </c>
       <c r="D40">
-        <v>1.1247845000000001</v>
+        <v>2.0057947999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>2.5132699999999999</v>
       </c>
       <c r="D41">
-        <v>1.0595123</v>
+        <v>1.9405227</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>2.5761099999999999</v>
       </c>
       <c r="D42">
-        <v>0.98803353000000005</v>
+        <v>1.8690439999999999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,7 +3059,7 @@
         <v>2.6389399999999998</v>
       </c>
       <c r="D43">
-        <v>0.91050799999999998</v>
+        <v>1.7915182999999999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
         <v>2.7017699999999998</v>
       </c>
       <c r="D44">
-        <v>0.82708614999999996</v>
+        <v>1.7080964999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>2.7646000000000002</v>
       </c>
       <c r="D45">
-        <v>0.73795379999999999</v>
+        <v>1.6189642</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2.8274300000000001</v>
       </c>
       <c r="D46">
-        <v>0.64332115999999995</v>
+        <v>1.5243316</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,7 +3115,7 @@
         <v>2.8902700000000001</v>
       </c>
       <c r="D47">
-        <v>0.54340650000000001</v>
+        <v>1.4244169</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>2.9531000000000001</v>
       </c>
       <c r="D48">
-        <v>0.43850073000000001</v>
+        <v>1.3195110000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,7 +3143,7 @@
         <v>3.01593</v>
       </c>
       <c r="D49">
-        <v>0.32887169999999999</v>
+        <v>1.2098819999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>3.0787599999999999</v>
       </c>
       <c r="D50">
-        <v>0.21482726999999999</v>
+        <v>1.0958376000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,7 +3171,7 @@
         <v>3.1415899999999999</v>
       </c>
       <c r="D51">
-        <v>9.6699640000000003E-2</v>
+        <v>0.97770999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,7 +3185,7 @@
         <v>3.2044199999999998</v>
       </c>
       <c r="D52">
-        <v>-2.5154554999999999E-2</v>
+        <v>0.85585580000000006</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>3.2672599999999998</v>
       </c>
       <c r="D53">
-        <v>-0.15037445999999999</v>
+        <v>0.7306359</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>3.3300900000000002</v>
       </c>
       <c r="D54">
-        <v>-0.27851473999999998</v>
+        <v>0.60249560000000002</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,7 +3227,7 @@
         <v>3.3929200000000002</v>
       </c>
       <c r="D55">
-        <v>-0.40916522999999999</v>
+        <v>0.47184512000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,7 +3241,7 @@
         <v>3.4557500000000001</v>
       </c>
       <c r="D56">
-        <v>-0.54187169999999996</v>
+        <v>0.33913865999999998</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>3.51858</v>
       </c>
       <c r="D57">
-        <v>-0.67615550000000002</v>
+        <v>0.20485485</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,7 +3269,7 @@
         <v>3.58142</v>
       </c>
       <c r="D58">
-        <v>-0.81153520000000001</v>
+        <v>6.9475174000000001E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,7 +3283,7 @@
         <v>3.64425</v>
       </c>
       <c r="D59">
-        <v>-0.94744015000000004</v>
+        <v>-6.6429790000000002E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,7 +3297,7 @@
         <v>3.7070799999999999</v>
       </c>
       <c r="D60">
-        <v>-1.08334</v>
+        <v>-0.20232964000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,7 +3311,7 @@
         <v>3.7699099999999999</v>
       </c>
       <c r="D61">
-        <v>-1.2186584</v>
+        <v>-0.33764810000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
         <v>3.8327399999999998</v>
       </c>
       <c r="D62">
-        <v>-1.3527948999999999</v>
+        <v>-0.47178456000000002</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>3.8955700000000002</v>
       </c>
       <c r="D63">
-        <v>-1.4851242</v>
+        <v>-0.60411389999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,7 +3353,7 @@
         <v>3.9584100000000002</v>
       </c>
       <c r="D64">
-        <v>-1.6150175</v>
+        <v>-0.73400710000000002</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,7 +3367,7 @@
         <v>4.0212399999999997</v>
       </c>
       <c r="D65">
-        <v>-1.7417593</v>
+        <v>-0.86074894999999996</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
         <v>4.0840699999999996</v>
       </c>
       <c r="D66">
-        <v>-1.8646723000000001</v>
+        <v>-0.98366189999999998</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,7 +3395,7 @@
         <v>4.1468999999999996</v>
       </c>
       <c r="D67">
-        <v>-1.9830337</v>
+        <v>-1.1020234</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,7 +3409,7 @@
         <v>4.2097300000000004</v>
       </c>
       <c r="D68">
-        <v>-2.0960964999999998</v>
+        <v>-1.2150862</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,7 +3423,7 @@
         <v>4.27257</v>
       </c>
       <c r="D69">
-        <v>-2.203106</v>
+        <v>-1.3220955000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,7 +3437,7 @@
         <v>4.3353999999999999</v>
       </c>
       <c r="D70">
-        <v>-2.3032314999999999</v>
+        <v>-1.4222212000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
         <v>4.3982299999999999</v>
       </c>
       <c r="D71">
-        <v>-2.3956707000000002</v>
+        <v>-1.5146603999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,7 +3465,7 @@
         <v>4.4610599999999998</v>
       </c>
       <c r="D72">
-        <v>-2.4795790000000002</v>
+        <v>-1.5985685999999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,7 +3479,7 @@
         <v>4.5238899999999997</v>
       </c>
       <c r="D73">
-        <v>-2.554087</v>
+        <v>-1.6730765000000001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
         <v>4.5867300000000002</v>
       </c>
       <c r="D74">
-        <v>-2.6183105000000002</v>
+        <v>-1.7373000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
         <v>4.6495600000000001</v>
       </c>
       <c r="D75">
-        <v>-2.6713111</v>
+        <v>-1.7903007</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,7 +3521,7 @@
         <v>4.7123900000000001</v>
       </c>
       <c r="D76">
-        <v>-2.7121577000000001</v>
+        <v>-1.8311474000000001</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>4.77522</v>
       </c>
       <c r="D77">
-        <v>-2.7398837</v>
+        <v>-1.8588731999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,7 +3549,7 @@
         <v>4.83805</v>
       </c>
       <c r="D78">
-        <v>-2.7534974000000001</v>
+        <v>-1.8724871000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,7 +3563,7 @@
         <v>4.9008799999999999</v>
       </c>
       <c r="D79">
-        <v>-2.7519840000000002</v>
+        <v>-1.8709735000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,7 +3577,7 @@
         <v>4.9637200000000004</v>
       </c>
       <c r="D80">
-        <v>-2.7342987000000001</v>
+        <v>-1.8532883</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,7 +3591,7 @@
         <v>5.0265500000000003</v>
       </c>
       <c r="D81">
-        <v>-2.6993830000000001</v>
+        <v>-1.8183727000000001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
         <v>5.0893800000000002</v>
       </c>
       <c r="D82">
-        <v>-2.6461467999999999</v>
+        <v>-1.7651365000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,7 +3619,7 @@
         <v>5.1522100000000002</v>
       </c>
       <c r="D83">
-        <v>-2.5734767999999999</v>
+        <v>-1.6924665000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,7 +3633,7 @@
         <v>5.2150400000000001</v>
       </c>
       <c r="D84">
-        <v>-2.4802355999999999</v>
+        <v>-1.5992252</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
         <v>5.2778799999999997</v>
       </c>
       <c r="D85">
-        <v>-2.3652408</v>
+        <v>-1.4842303999999999</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,7 +3661,7 @@
         <v>5.3407099999999996</v>
       </c>
       <c r="D86">
-        <v>-2.2273426000000001</v>
+        <v>-1.3463323</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,7 +3675,7 @@
         <v>5.4035399999999996</v>
       </c>
       <c r="D87">
-        <v>-2.0653139999999999</v>
+        <v>-1.1843036</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,7 @@
         <v>5.4663700000000004</v>
       </c>
       <c r="D88">
-        <v>-1.8779196</v>
+        <v>-0.99690920000000005</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3703,7 +3703,7 @@
         <v>5.5292000000000003</v>
       </c>
       <c r="D89">
-        <v>-1.6638998</v>
+        <v>-0.78288939999999996</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
         <v>5.5920300000000003</v>
       </c>
       <c r="D90">
-        <v>-1.4219706999999999</v>
+        <v>-0.54096040000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,7 +3731,7 @@
         <v>5.6548699999999998</v>
       </c>
       <c r="D91">
-        <v>-1.1507784000000001</v>
+        <v>-0.26976805999999998</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,7 +3745,7 @@
         <v>5.7176999999999998</v>
       </c>
       <c r="D92">
-        <v>-0.84907630000000001</v>
+        <v>3.1934104999999997E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>5.7805299999999997</v>
       </c>
       <c r="D93">
-        <v>-0.51546619999999999</v>
+        <v>0.36554414000000002</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3773,7 +3773,7 @@
         <v>5.8433599999999997</v>
       </c>
       <c r="D94">
-        <v>-0.14856674</v>
+        <v>0.73244363000000001</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,7 +3787,7 @@
         <v>5.9061899999999996</v>
       </c>
       <c r="D95">
-        <v>0.25302817999999999</v>
+        <v>1.1340386</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,7 +3801,7 @@
         <v>5.9690300000000001</v>
       </c>
       <c r="D96">
-        <v>0.69082149999999998</v>
+        <v>1.5718319999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3815,7 +3815,7 @@
         <v>6.03186</v>
       </c>
       <c r="D97">
-        <v>1.166129</v>
+        <v>2.0471393999999998</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3829,7 +3829,7 @@
         <v>6.0946899999999999</v>
       </c>
       <c r="D98">
-        <v>1.6804965999999999</v>
+        <v>2.5615070000000002</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,7 +3843,7 @@
         <v>6.1575199999999999</v>
       </c>
       <c r="D99">
-        <v>2.2354278999999999</v>
+        <v>3.1164382000000002</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
         <v>6.2203499999999998</v>
       </c>
       <c r="D100">
-        <v>2.8324506</v>
+        <v>3.7134610000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,7 +3871,7 @@
         <v>6.2831900000000003</v>
       </c>
       <c r="D101">
-        <v>3.4732232000000001</v>
+        <v>4.3542337</v>
       </c>
     </row>
   </sheetData>
